--- a/src/main/resources/map.xlsx
+++ b/src/main/resources/map.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -437,6 +437,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
